--- a/src/main/resources/populate/numerique.xlsx
+++ b/src/main/resources/populate/numerique.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Vie numérique</t>
   </si>
@@ -32,18 +32,9 @@
     <t>Stockage cloud</t>
   </si>
   <si>
-    <t>Câbles</t>
-  </si>
-  <si>
-    <t>Accessoires PC</t>
-  </si>
-  <si>
     <t>Réseaux sociaux</t>
   </si>
   <si>
-    <t>Newsletters</t>
-  </si>
-  <si>
     <t>À consulter plus tard</t>
   </si>
   <si>
@@ -53,10 +44,52 @@
     <t>apps etc</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>programmes…</t>
+  </si>
+  <si>
+    <t>Réseaux sociaux, e-mails, ordinateur, smartphone, stockage en ligne… Simplifie, organise et allège ta vie numérique : moins de prises de tête, moins de pollution !</t>
+  </si>
+  <si>
+    <t>L'encombrement et la pollution ne sont pas toujours visibles</t>
+  </si>
+  <si>
+    <t>Déjà passé une heure à chercher une information dans ta boîte mail ? Et savais-tu que garder des e-mails pollue énormément ? Si ta boîte déborde : crée des dossiers pour trier et ranger ce que tu dois garder, et supprimer tout ce dont tu n'as pas besoin. Une fois le système mis en place, prends quelques minutes chaque semaine pour garder ta boîte rangée et triée. Pense à vider ta corbeille et tes mails envoyés.</t>
+  </si>
+  <si>
+    <t>La tête dans les nuages</t>
+  </si>
+  <si>
+    <t>Quand on s'emmêle les câbles…</t>
+  </si>
+  <si>
+    <t>Accessoires informatiques</t>
+  </si>
+  <si>
+    <t>câbles etc</t>
+  </si>
+  <si>
+    <t>Temps passé sur les écrans</t>
+  </si>
+  <si>
+    <t>Newsletters et abonnements</t>
+  </si>
+  <si>
+    <t>Je me demande pourquoi j'ai mal aux yeux…</t>
+  </si>
+  <si>
+    <t>J'arrête quand je veux</t>
+  </si>
+  <si>
+    <t>Quand j'aurai le temps</t>
+  </si>
+  <si>
+    <t>Mon garage est mieux rangé</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
+  </si>
+  <si>
+    <t>Les newsletters commerciales t'incitent à acheter des choses inutiles. Au lieu de les supprimer machinalement (ou pire, de les ouvrir et de craquer !), désabonne-toi une fois pour toutes. Si tu n'utilises plus le site qui te les envoie, supprime ton compte sur le site : tous les comptes existants sur des sites Internet sont un risque qu'on te vole des données personnelles.&lt;br&gt;Réfléchis également à toute autre forme d'abonnement (à des services de streaming par exemple), surtout s'ils sont payants, et à leur utilité. Ne reste pas abonné.e juste parce que ce n'est pas cher, si ça ne te sert à rien.</t>
   </si>
 </sst>
 </file>
@@ -92,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,15 +431,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -413,74 +458,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/populate/numerique.xlsx
+++ b/src/main/resources/populate/numerique.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Vie numérique</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Stockage physique</t>
   </si>
   <si>
-    <t>usb, dd, sd..</t>
-  </si>
-  <si>
     <t>Stockage cloud</t>
   </si>
   <si>
@@ -41,21 +38,9 @@
     <t>Smartphone</t>
   </si>
   <si>
-    <t>apps etc</t>
-  </si>
-  <si>
-    <t>programmes…</t>
-  </si>
-  <si>
-    <t>Réseaux sociaux, e-mails, ordinateur, smartphone, stockage en ligne… Simplifie, organise et allège ta vie numérique : moins de prises de tête, moins de pollution !</t>
-  </si>
-  <si>
     <t>L'encombrement et la pollution ne sont pas toujours visibles</t>
   </si>
   <si>
-    <t>Déjà passé une heure à chercher une information dans ta boîte mail ? Et savais-tu que garder des e-mails pollue énormément ? Si ta boîte déborde : crée des dossiers pour trier et ranger ce que tu dois garder, et supprimer tout ce dont tu n'as pas besoin. Une fois le système mis en place, prends quelques minutes chaque semaine pour garder ta boîte rangée et triée. Pense à vider ta corbeille et tes mails envoyés.</t>
-  </si>
-  <si>
     <t>La tête dans les nuages</t>
   </si>
   <si>
@@ -65,9 +50,6 @@
     <t>Accessoires informatiques</t>
   </si>
   <si>
-    <t>câbles etc</t>
-  </si>
-  <si>
     <t>Temps passé sur les écrans</t>
   </si>
   <si>
@@ -90,6 +72,36 @@
   </si>
   <si>
     <t>Les newsletters commerciales t'incitent à acheter des choses inutiles. Au lieu de les supprimer machinalement (ou pire, de les ouvrir et de craquer !), désabonne-toi une fois pour toutes. Si tu n'utilises plus le site qui te les envoie, supprime ton compte sur le site : tous les comptes existants sur des sites Internet sont un risque qu'on te vole des données personnelles.&lt;br&gt;Réfléchis également à toute autre forme d'abonnement (à des services de streaming par exemple), surtout s'ils sont payants, et à leur utilité. Ne reste pas abonné.e juste parce que ce n'est pas cher, si ça ne te sert à rien.</t>
+  </si>
+  <si>
+    <t>Réseaux sociaux, e-mails, ordinateur, smartphone, stockage en ligne… Simplifie, organise et allège ta vie numérique : moins de prises de tête, moins de temps perdu, moins de pollution !</t>
+  </si>
+  <si>
+    <t>Le fichiers stockés dans le Cloud (un espace de stockage en ligne) consomment de l'énergie, et son la cible potentielle de vol d'informations. Conserve dans le Cloud uniquement les fichiers dont tu as besoin "partout, tout le temps", supprime les photos et autres fichiers inutiles. Rassemble tout sur un seul espace de stockage et classe en dossiers. Désactive les stockages Cloud automatiques si tu n'en as pas besoin.</t>
+  </si>
+  <si>
+    <t>Donne une seconde vie à tout le matériel informatique que tu n'utilises pas : les CD d'installation de machines que tu ne possèdes plus, les câbles dont tu ne connais pas l'utilité, les périphériques défectueux ou qui font double-emploi… Ce matériel peut souvent être recyclé et les accessoires en état de fonctionnement réutilisés par quelqu'un d'autre.</t>
+  </si>
+  <si>
+    <t>Si ton premier réflexe lorsque tu t'ennuies pendant 10 secondes est de déverrouiller ton smartphone, ou que tu passes régulièrement des heures sur Internet jusqu'au moment où tu te demandes pourquoi tu regardes une vidéo intitulée "Pourquoi les girafes ont un long cou", une détox numérique s'impose !&lt;br&gt;Fais une liste d'activités que tu aimerais pratiquer mais pour lesquelles tu ne trouves jamais assez de temps, de préférence hors écran. Dès que tu es tenté.e d'errer sur le net, pioche dans ta liste. Tiens bon les premiers jours, ensuite tes mauvais réflexes s'envoleront.</t>
+  </si>
+  <si>
+    <t>Pour perdre moins de temps sur les réseaux sociaux, fais le tri : désabonne-toi des comptes qui ne t'intéressent plus, supprimer les contacts avec qui tu n'as pas d'interactions (ou désactive les notifications), ou supprimer carrément tes comptes sur les réseaux qui ne t'apportent rien de positif.</t>
+  </si>
+  <si>
+    <t>Si ta liste d'articles et de vidéos à consulter plus tard s'allonge de jour en jour, arrête d'en enregistrer. Si tu ne prends pas dix minutes maintenant pour lire cet article ou regarder cette vidéo, c'est que ça ne t'intéresse pas vraiment. "Quand j'aurai le temps" est un moment qui n'existe pas.</t>
+  </si>
+  <si>
+    <t>Plus il y a d'applications installées sur ton smartphone, plus il sera ralenti et vieillira rapidement. Désinstalle régulièrement les apps que tu n'utilises pas. Vérifie également tes paramètres de notification pour désactiver toutes celles qui ne t'intéressent pas : tu seras moins distrait.e.&lt;br&gt;&lt;br&gt;Fais le nettoyage dans tes photos et vidéos. Maintenant que tu as organisé ton stockage, tu peux ranger celles que tu veux garder dans le bon dossier, et n'en conserver que quelques unes sur ton smartphone.</t>
+  </si>
+  <si>
+    <t>Rien de sert de garder des tas de fichiers que tu n'utilises pas. Fais le tri et supprime les photos floues, les fichiers que tu ne consultes jamais, les films et séries que tu ne regarderas jamais… de tes périphériques de stockage (clés USB, disques durs, cartes mémoire...). Organise des dossiers et rassemble tous les fichiers similaires.&lt;br&gt;&lt;br&gt;Stocker ses informations importantes sur un périphérique séparé de son PC est important pour éviter de tout perdre si l'ordinateur tombe en panne !</t>
+  </si>
+  <si>
+    <t>Tout comme ton smartphone, ton ordinateur peut être ralenti par un trop grand nombre de programmes installés. Désinstalle complètement tout ce qui ne t'est pas utile.&lt;br&gt;Trie tes fichiers et classe tout ce dont tu n'as pas régulièrement besoin sur un périphérique externe.&lt;br&gt;Vide régulièrement les dossiers temporaires comme le dossier de Téléchargement, la Corbeille...</t>
+  </si>
+  <si>
+    <t>Déjà passé une heure à chercher une information dans ta boîte mail ? Et savais-tu que garder des e-mails pollue énormément ? Si ta boîte déborde : crée des dossiers pour trier et ranger ce que tu dois garder, et supprimer tout ce dont tu n'as pas besoin. Une fois le système mis en place, prends quelques minutes chaque semaine pour garder ta boîte rangée et triée. Pense à vider ta corbeille et tes mails envoyés. &lt;br&gt;&lt;br&gt;Tu n'es pas très branché.e informatique ? &lt;a href="https://www.theflonicles.be/2020/07/organiser-numerique-mails.html"&gt;J'ai écrit un guide complet pour toi&lt;/a&gt; !</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +473,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,97 +483,105 @@
     <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
